--- a/risposte.xlsx
+++ b/risposte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://group.ferragamo.com</t>
+          <t>http://mabi.it</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://mabi.it</t>
+          <t>http://group.ferragamo.com</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,27 +478,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://www.mastrotto.com</t>
+          <t>http://www.pasubio.com</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.alpinestarsinc.com</t>
+          <t>http://www.roveda1955.com</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://www.pasubio.com</t>
+          <t>http://mariolevi.com</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,257 +508,265 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://www.renatocorti.it</t>
+          <t>http://www.falcotto.com</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://www.faeda.com</t>
+          <t>http://www.nutiivo.it/nutiivo.it</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://www.cofra.it</t>
+          <t>http://ru.piquadro.com</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://www.bottegaveneta.com</t>
+          <t>http://www.russodicasandrino.com</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://www.diadora.com</t>
+          <t>http://www.gruppoperetti.com</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://www.balenciaga.com</t>
+          <t>http://www.italianshoes.com</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://www.ysl.com</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>200</v>
+          <t>http://www.calzaturificiojumbo.it</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.calzaturificiojumbo.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://www.prada.com</t>
+          <t>http://www.ama-milano.it/it/.it</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://world.scarpa.com</t>
+          <t>http://www.finco1865.it</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://www.geox.biz</t>
+          <t>http://www.montebello-tannery.it</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://www.pollini.com</t>
+          <t>http://www.bonis-spa.com</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://www.roveda1955.com</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>410</v>
+          <t>http://skandiashoes.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='skandiashoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E61000&gt;: Failed to resolve 'skandiashoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://www.falcotto.com</t>
+          <t>http://valmor.it</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://www.fontanamilano1915.it</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>200</v>
+          <t>http://us.devselle.it</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='us.devselle.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E4B310&gt;: Failed to resolve 'us.devselle.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://www.guerrierosrl.eu</t>
+          <t>http://www.zumapellipregiate.com</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://www.calzaturificiogensi.com</t>
+          <t>http://www.nillab.it</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://mille885.com</t>
+          <t>http://eu.christianlouboutin.com/it_en/.it</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://www.celine.fr</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>200</v>
+          <t>http://www.spirale.it</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.spirale.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://www.ciclostar.it</t>
+          <t>http://www.gmitaliane.it/claudia/.it</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://www.nutiivo.it/nutiivo.it</t>
+          <t>http://www.febos.com</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://www.rinomastrotto.com</t>
+          <t>http://www.conceria3c.it</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://www.coccinelle.com</t>
+          <t>http://lapatrie.it</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://lowa.it</t>
+          <t>http://www.greymer.it</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://www.gianvitorossi.com</t>
+          <t>http://www.maretto.it</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://www.gruppodani.com</t>
+          <t>http://www.calzaturificioarkte.com</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://mariolevi.com</t>
+          <t>http://gielleemme.it</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,67 +776,67 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://www.leoshoes.it</t>
+          <t>http://www.lineacshoes.com</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://ru.piquadro.com</t>
+          <t>http://www.caravelleshoes.it</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://tripeldue.it</t>
+          <t>http://www.stonefly.it/.it</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://www.bonaudo.com</t>
+          <t>http://www.marioleviitalia.it</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://www.italianshoes.com</t>
+          <t>http://www.assocalzaturifici.it/ancimain/crm?id=432.it</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://www.russodicasandrino.com</t>
+          <t>http://www.hermes.com</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://www.gruppoperetti.com</t>
+          <t>http://www.albagroup.it</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,179 +846,181 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://www.igieco.it</t>
+          <t>http://www.bbminternational.it</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://www.conceriamarbella.it</t>
+          <t>http://www.calzaturificiosirio.it</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>202</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://www.calzaturificiojumbo.it</t>
+          <t>http://www.cleobottier.com</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HTTPSConnectionPool(host='www.calzaturificiojumbo.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+          <t>HTTPConnectionPool(host='www.cleobottier.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3413430&gt;: Failed to resolve 'www.cleobottier.com' ([Errno 11001] getaddrinfo failed)"))</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://www.santonishoes.com</t>
+          <t>http://www.vignolanobile.com</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>200</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://www.crestleather.com</t>
+          <t>http://www.calzaturificiomaritanspa.it</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://www.lamipel.it</t>
+          <t>http://www.conceriaguerino.it</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://www.masonispa.com</t>
+          <t>http://www.onlyfrank.it</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://www.eurosuole.com</t>
+          <t>http://www.cuoificiobisonte.it</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://www.giuseppezanotti.ru</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>200</v>
+          <t>http://www.giasco.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://lottosport.com</t>
+          <t>http://www.meetitalia.it</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>http://www.nillab.it</t>
+          <t>http://www.deicolli.it</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>410</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>http://www.antiba.it</t>
+          <t>http://www.negroweb.it</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>http://www.freelandcalzature.it</t>
+          <t>http://www.natuzzi.com</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>http://www.baseprotection.fr</t>
+          <t>http://www.volpiconcerie.it</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>http://www.tivoligroup.it</t>
+          <t>http://www.prealpinatannery.com</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>http://dsquared2.com</t>
+          <t>http://www.geminitalia.it</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>http://www.iniziativeconciarieassociate.it</t>
+          <t>http://www.deanspa.it/.it</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>http://www.finco1865.it</t>
+          <t>http://www.conceriaferrero.com</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1020,291 +1030,307 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>http://yub.it</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>200</v>
+          <t>http://www.brandsindustry.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>http://conceriacadore.it</t>
+          <t>http://labiesseuno.com</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>http://www.montebello-tannery.it</t>
+          <t>http://www.jollyscarpe.com</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>http://www.caovilla.com</t>
+          <t>http://www.conceriam2.com</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>http://lancel.com</t>
+          <t>http://www.hugoboss.com</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>http://www.berluti.com</t>
+          <t>http://www.snamsrl.it</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>http://www.ama-milano.it/it/.it</t>
+          <t>http://www.danesievolution.it</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>http://shoesmyway.baldinini-shop.com</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>200</v>
+          <t>http://www.antoniobarbato.store.it</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.antoniobarbato.store.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15894E0&gt;: Failed to resolve 'www.antoniobarbato.store.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>http://www.uvex.de</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>200</v>
+          <t>http://www.todsgroup.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>http://www.sixton.it</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>200</v>
+          <t>http://www.gucci.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>http://valmor.it</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>410</v>
+          <t>http://www.pezzol.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='no.access', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C61FC0&gt;: Failed to resolve 'no.access' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>http://www.hide.it</t>
+          <t>http://www.wetblueraff.com</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>http://www.as-98.com</t>
+          <t>http://www.lafrassineti.it</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>http://www.cuoioditoscana.it</t>
+          <t>http://www.o-three.eu</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>http://pelletteriepalladio.it</t>
+          <t>http://www.dlleather.it</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>http://skandiashoes.com</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>HTTPConnectionPool(host='skandiashoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000216E86D2C80&gt;: Failed to resolve 'skandiashoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
-        </is>
+          <t>http://www.radar1957.it</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>http://rossimoda.com</t>
+          <t>http://www.jelkom.com</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>http://www.sergiorossi.com</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>200</v>
+          <t>http://www.nuovaantilope.it</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.nuovaantilope.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137F310&gt;: Failed to resolve 'www.nuovaantilope.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>http://www.bonis-spa.com</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>403</v>
+          <t>http://www.lucagrossi.store.it</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.lucagrossi.store.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2ADCD60&gt;: Failed to resolve 'www.lucagrossi.store.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>http://www.menghishoes.com</t>
+          <t>http://www.angelocoppola.eu</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>http://www.dimargroup.com</t>
+          <t>http://www.calzaturificiodiemme.it</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>http://www.orionspa.com</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>200</v>
+          <t>http://mirial-srl.business.site.it</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='mirial-srl.business.site.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A905E0&gt;: Failed to resolve 'mirial-srl.business.site.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>http://www.brics.it</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>200</v>
+          <t>http://www.trendsrl.eu</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>http://us.devselle.it</t>
+          <t>http://www.bulgari.com</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HTTPConnectionPool(host='us.devselle.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000216E86D0220&gt;: Failed to resolve 'us.devselle.it' ([Errno 11001] getaddrinfo failed)"))</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>http://www.bcn.it</t>
+          <t>http://arkimediagroup.it</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>http://www.trezetagroup.com</t>
+          <t>http://www.umbertorusso.it</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>http://www.carmens.it</t>
+          <t>http://cesaremartinoli.it</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>http://shop.garsport.it</t>
+          <t>http://fracca.net</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>http://www.zumapellipregiate.com</t>
+          <t>http://www.tigamaro.it</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1314,339 +1340,355 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>http://www.renzofavero.com</t>
+          <t>http://www.parisinipelletterie.com</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>http://www.manifatturelombarde.it</t>
+          <t>http://www.spac.it</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>http://www.sirp.com</t>
+          <t>http://www.peronshoes.it</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>http://www.caravelspa.com</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>200</v>
+          <t>http://www.pell-pam.it</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pell-pam.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F6F80&gt;: Failed to resolve 'www.pell-pam.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>http://www.decristofaroshoes.com</t>
+          <t>http://www.calba.it</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>http://www.albertogozzi.it</t>
+          <t>http://www.asgint.com</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>http://www.spirale.it</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>HTTPSConnectionPool(host='www.spirale.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
-        </is>
+          <t>http://www.portlands.it</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>http://www.rodolfozengariniofficial.com</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>200</v>
+          <t>http://www.calzaturificioambra.it</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificioambra.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F307FAC0&gt;: Failed to resolve 'www.calzaturificioambra.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>http://www.gaiera.eu</t>
+          <t>http://eddyricami.it</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://elisabet.it</t>
+          <t>http://romagnoli.com</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://eu.christianlouboutin.com/it_en/.it</t>
+          <t>http://valleesina.it</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>http://www.pelletteriaalmax.com</t>
+          <t>http://www.lm-michielon.com</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>http://www.settebelloconceria.it</t>
+          <t>http://www.3cpelletterie.it</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>http://www.icaleather.it</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>200</v>
+          <t>http://www.soledan.191.it</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.soledan.191.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1368CD0&gt;: Failed to resolve 'www.soledan.191.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>http://nerogiardini.it</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>200</v>
+          <t>http://dike.works.it</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='dike.works.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C2E860&gt;: Failed to resolve 'dike.works.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>http://www.exena.it</t>
+          <t>http://www.lunatikabags.it</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>http://www.pscomponents.eu</t>
+          <t>http://www.samanta.com/.it</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>http://www.stefania.it</t>
+          <t>http://www.suolificiodick.it</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>http://www.benit.it</t>
+          <t>http://www.calzaturificiolusar.it</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>http://www.superior.it</t>
+          <t>http://www.arespelletteria.com</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>http://www.dalbello.it</t>
+          <t>http://www.giusy.com</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>http://www.crispi.it</t>
+          <t>http://www.maximaonline.it</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>http://goretti.it</t>
+          <t>http://www.ghoud-venice.com</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>http://www.petrashoes.it</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>200</v>
+          <t>http://www.annabellaspa.eu</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.annabellaspa.eu', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1363850&gt;: Failed to resolve 'www.annabellaspa.eu' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>http://www.borbonese.com</t>
+          <t>http://www.ucchiello.com</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>http://www.gmitaliane.it/claudia/.it</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>404</v>
+          <t>http://www.novashoes.it</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='%5cwww.novashoes.it', port=443): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x00000174F18669B0&gt;: Failed to resolve '%5cwww.novashoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>http://www.dolmenspa.com</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>200</v>
+          <t>http://www.thierryrabotin.shop.it</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.thierryrabotin.shop.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.thierryrabotin.shop.it'. (_ssl.c:997)")))</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>http://www.febos.com</t>
+          <t>http://www.conceriads.it</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>http://www.philippemodel.com</t>
+          <t>http://www.regshoes.it</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>http://uk.garmont.com</t>
+          <t>http://www.ars-suola.it</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>http://frasson.com</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>200</v>
+          <t>http://www.amaresrl.it</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>http://www.bmb-manifatturaborse.com</t>
+          <t>http://www.prosperine.it</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>http://www.assoitaly.it</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>200</v>
+          <t>http://www.rossanobisconti.it</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.rossanobisconti.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F6320&gt;: Failed to resolve 'www.rossanobisconti.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>http://www.conceria3c.it</t>
+          <t>http://www.solettificioilveliero-calcinaia.it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1656,7 +1698,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>http://www.maretto.it</t>
+          <t>http://www.susimoda.it</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1666,357 +1708,391 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>http://www.sidi.com</t>
+          <t>http://www.marialuisa.info</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>http://www.northwave.com</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>200</v>
+          <t>http://franzini.eu</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='franzini.eu', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'franzini.eu'. (_ssl.c:997)")))</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>http://www.gmitaliane.it</t>
+          <t>http://www.molliter.com</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>http://www.deviconcia.it</t>
+          <t>http://www.pellealvegetale.it/concerie/nuova-grenoble/.it</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>http://lapatrie.it</t>
+          <t>http://www.dogiinternational.com</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>http://www.flyflot.it</t>
+          <t>http://www.maxisuola.it/.it</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>http://www.aku.it</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>200</v>
+          <t>http://www.wildsideshoes.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.wildsideshoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F35B2EF0&gt;: Failed to resolve 'www.wildsideshoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://www.moreschi.it</t>
+          <t>http://www.fru.it</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://www.greymer.it</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>410</v>
+          <t>http://www.adler-chemicals.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.adler-chemicals.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>http://www.carismaleather.it</t>
+          <t>http://www.cbr-tacstile.com</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>http://www.agl.com</t>
+          <t>http://conciariamondovi.com</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>http://www.stilema.com</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>200</v>
+          <t>http://www.conceria-tari.com</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>http://www.raftinggoldstar.com</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>200</v>
+          <t>http://www.volpi.it</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>http://www.sivapelli.com</t>
+          <t>http://www.cfepsrl.com</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>http://casadei.com</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>200</v>
+          <t>http://conceriapagni.it</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>http://www.ilbisonte.com</t>
+          <t>http://www.creativeleathers.com</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>http://www.officinecreativeitalia.com</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>200</v>
+          <t>http://conceriaupimar.it</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>http://utility.mandarinaduck.com</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>200</v>
+          <t>http://www.mottapelli.191.it</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.mottapelli.191.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1864940&gt;: Failed to resolve 'www.mottapelli.191.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>http://www.falco.it</t>
+          <t>http://www.parisienneshoes.com</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>202</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>http://www.rinaldiconceria.com</t>
+          <t>http://dinobigioni.com</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>http://www.calzaturificioarkte.com</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>410</v>
+          <t>http://www.salacalzature.it</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>http://www.english.ilceaconceria.it</t>
+          <t>http://www.altramarea.it</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>http://www.prestigeitalia.com</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>200</v>
+          <t>http://www.calzaturificiobiquattro.it</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificiobiquattro.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1405870&gt;: Failed to resolve 'www.calzaturificiobiquattro.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>http://www.conceriavolpiana.it</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>200</v>
+          <t>http://anna-rossi.it/language/it.it</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>http://www.valdarno.it</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>200</v>
+          <t>http://www.solettificiocompagnone.it</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>http://www.artigianiveneziani.it</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>200</v>
+          <t>http://www.danilobonfanti.it</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.danilobonfanti.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3398580&gt;: Failed to resolve 'www.danilobonfanti.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>http://www.perinspa.it</t>
+          <t>http://fratelliborgioli.com</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>http://www.nuovaimpala.com</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>200</v>
+          <t>http://www.prefinitisimon.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>http://www.derobert.com</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>200</v>
+          <t>http://www.apcsrl.it</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>http://www.lagriffe.it</t>
+          <t>http://www.repo-srl.com</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>http://www.conceriapriante.com</t>
+          <t>http://www.fabbricapelletteriemilano.eu</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>http://www.campomaggi.com</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>200</v>
+          <t>http://stilmodashoes.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='stilmodashoes.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'stilmodashoes.com'. (_ssl.c:997)")))</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>http://medusashoes.com</t>
+          <t>http://www.officinartigiana.it</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>http://gielleemme.it</t>
+          <t>http://www.astorflex.it</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>http://sagipelletterie.com</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>200</v>
+          <t>http://kybunjoya.swiss.it</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='kybunjoya.swiss.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F7AC0&gt;: Failed to resolve 'kybunjoya.swiss.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>http://www.lineacshoes.com</t>
+          <t>http://www.francescorussosrl.it</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2026,418 +2102,4894 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>http://www.mgmspa.eu</t>
+          <t>http://www.rivadavia.net</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>http://www.caravelleshoes.it</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>410</v>
+          <t>http://calzaturificiocosmo.it</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>http://www.pelletteriegiancarlo.net</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>200</v>
+          <t>http://concerialufran.it</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>http://www.formificioromagnolo.com</t>
+          <t>http://www.atlanticstars.it</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>http://www.walles.it</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>200</v>
+          <t>http://guidoangeloni.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>http://www.cromia.it</t>
+          <t>http://www.galliatepelli.it</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>http://www.sangiorgiosrl.com</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>200</v>
+          <t>http://santipel.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>http://www.inblu.com</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>200</v>
+          <t>http://sandyshoes.it</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>http://www.marioleviitalia.it</t>
+          <t>http://www.mtpellami.it/.it</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>http://www.gaerne.com</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>200</v>
+          <t>http://carlille.it</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='carlille.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>http://www.gabgroup.it</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>200</v>
+          <t>http://www.rondinellashoes.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.rondinellashoes.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>http://www.bicap.it</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>200</v>
+          <t>http://www.panizzoloantonio.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>http://www.assocalzaturifici.it/ancimain/crm?id=432.it</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>202</v>
+          <t>http://www.laserartstyle.it</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>http://www.cromier.it</t>
+          <t>http://www.calzaturificiospinnaker.it</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>http://www.vicenzapelli.com</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>200</v>
+          <t>http://www.artigianascarpe.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Exceeded 30 redirects.</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>http://www.albagroup.it</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>403</v>
+          <t>http://www.albatros-accessories.it</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>http://www.fonpelli.it</t>
+          <t>http://www.pakerson.it</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>202</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>http://www.vestacorp.it</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>200</v>
+          <t>http://www.blupell.it</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.blupell.it', port=80): Max retries exceeded with url: / (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000174F32027A0&gt;: Failed to establish a new connection: [WinError 10061] Impossibile stabilire la connessione. Rifiuto persistente del computer di destinazione'))</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>http://www.demacalzature.it</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>200</v>
+          <t>http://www.togisrl.it</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.togisrl.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.togisrl.it'. (_ssl.c:997)")))</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>http://www.hermes.com</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>403</v>
+          <t>http://www.ducapellami.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.ducapellami.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>http://www.conceriaopera.it</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>202</v>
+          <t>http://www.conceriawalpier.it</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>http://www.lemie.it</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>200</v>
+          <t>http://www.saccardi.it</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>http://www.bbminternational.it</t>
+          <t>http://www.pelletteriedelfino.it</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>http://www.pandasafety.com</t>
+          <t>http://www.lunet.it/aziende/pera.it</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>http://dami.it</t>
+          <t>http://www.conceriannarita.it</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>http://www.colonnellimanifatture.com</t>
+          <t>http://www.altamoda.pl</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>http://www.stonefly.it/.it</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>404</v>
+          <t>http://www.accoppiaturegc.it</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.accoppiaturegc.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F6F20&gt;: Failed to resolve 'www.accoppiaturegc.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>http://www.asolo.com</t>
+          <t>http://www.egifra.it</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>http://www.ferrarilasi.it/conceria.it</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>200</v>
+          <t>http://www.tradigo.it</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>http://www.sciarada.it</t>
+          <t>http://www.silvanobiagini.com</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>200</v>
+        <v>503</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>http://www.conceriazonta.com</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>200</v>
+          <t>http://www.conceriamaryam.it</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>http://www.conceriaderma.it</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>200</v>
+          <t>http://www.ambraautomotive.com</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.ambraautomotive.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2EAF820&gt;: Failed to resolve 'www.ambraautomotive.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>http://www.lamonti.it</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>200</v>
+          <t>http://www.bernacchini.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>http://www.calzaturificiolesfemmes.com</t>
+          <t>http://piemmegiserramenti.com</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>http://www.ingropelli.it</t>
+          <t>http://www.lorenzomasiero.it</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>http://www.brandsindustry.com</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+          <t>http://www.hf2000.com</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>http://www.portaliboutique.it</t>
+          <t>http://www.topsystemsrl.com</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>200</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>http://www.gucci.com</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+          <t>http://www.conceriapokersas.com</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>http://www.todsgroup.com</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+          <t>http://www.calzaturificionuovariviera.com</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>http://www.trendsrl.eu</t>
+          <t>http://dabopelletteria.com</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>HTTPConnectionPool(host='dabopelletteria.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295C7F0&gt;: Failed to resolve 'dabopelletteria.com' ([Errno 11001] getaddrinfo failed)"))</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>http://www.bulgari.com</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
+          <t>http://bontoni.com</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>http://www.marossrl.it</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.woz.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.woz.it'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>http://www.terzipel.it</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.terzipel.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1330A90&gt;: Failed to resolve 'www.terzipel.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificionoe.it</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>http://romy-pelletterie-srl-01819370519.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='romy-pelletterie-srl-01819370519.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriaveneta.com</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>http://www.goldfreedomsrl.com</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>http://andreadelvecchio.com</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>http://www.gramarshoes.it</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gramarshoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2B02650&gt;: Failed to resolve 'www.gramarshoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>http://www.leatherinstock.it</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.leatherinstock.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BF52D0&gt;: Failed to resolve 'www.leatherinstock.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>http://www.suolificiodangelo.it</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.suolificiodangelo.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1398A30&gt;: Failed to resolve 'www.suolificiodangelo.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>http://www.bricklaneshoes.it</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>http://www.bressanshoes.com</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.bressanshoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F131D090&gt;: Failed to resolve 'www.bressanshoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>http://innueitalia.it</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='innueitalia.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F131D3F0&gt;: Failed to resolve 'innueitalia.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>http://agostini.shoes.it</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='agostini.shoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1886920&gt;: Failed to resolve 'agostini.shoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>http://www.galletti-pelletterie.it</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>http://www.laviafirenze.com</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.laviafirenze.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.laviafirenze.com'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>http://www.balie.shoes.it</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.balie.shoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F429E0&gt;: Failed to resolve 'www.balie.shoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>http://mb3.it</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>http://www.fratellilobaccaro.it</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fratellilobaccaro.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3201360&gt;: Failed to resolve 'www.fratellilobaccaro.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>http://www.sandrog.it</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sandrog.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1309A50&gt;: Failed to resolve 'www.sandrog.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriefabioguidi.com</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>http://www.axelconceria.it</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>http://mpg.it</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>http://mibfur.com</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>http://www.bimacshoes.com</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>http://www.tre-emme.it</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>http://calzaturificio-la-fibbia-srl.business.site.it</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='calzaturificio-la-fibbia-srl.business.site.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A83A90&gt;: Failed to resolve 'calzaturificio-la-fibbia-srl.business.site.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>http://www.rifincuoiogroup.com</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>http://www.tiemmegi.com</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>http://www.favarofloriano.com</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.favarofloriano.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137CD30&gt;: Failed to resolve 'www.favarofloriano.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>http://www.estemporaneamadeinitaly.com</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.estemporaneamadeinitaly.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3202170&gt;: Failed to resolve 'www.estemporaneamadeinitaly.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>http://www.solettificioromas.it</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.solettificioromas.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F153EFE0&gt;: Failed to resolve 'www.solettificioromas.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>http://www.facit.it</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>http://www.manifatturetoscana.com</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.manifatturetoscana.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1713610&gt;: Failed to resolve 'www.manifatturetoscana.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>http://emme-elle-srl-02170480517.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='emme-elle-srl-02170480517.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>http://www.arcobalenorifinizione.com</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>http://novagea.it</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>http://www.thaissrl.com</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.thaissrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2ADC340&gt;: Failed to resolve 'www.thaissrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>http://www.pelletterialuisanna.com</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletterialuisanna.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F153E2C0&gt;: Failed to resolve 'www.pelletterialuisanna.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>http://www.evolfashion.com</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>http://biobasedleather.it</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>http://www.pellico.net</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>http://www.cobrapelletterie.com</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>http://www.hollystyle.it</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.hollystyle.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2DE1780&gt;: Failed to resolve 'www.hollystyle.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>http://www.tacchificio2m.com</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>http://www.pierotucci.com</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>http://www.suolificiogbc.it</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='qltuh.bellatrixmeissa.com', port=443): Max retries exceeded with url: /?pl=CHiI7Gh3GUyTa8XGgNqDyQ&amp;click_id=cp2u5uijvq3fratlghs0 (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>http://www.reptileshouse.net</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiorusam.com</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>http://www.bottegaquadra.com</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>http://artigianipellettieri.it</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>http://odeonpellami.it</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>http://pelletterie-foti.it</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>http://www.desireelupi.com</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>http://adno.surf.it</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='adno.surf.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F377FFD0&gt;: Failed to resolve 'adno.surf.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>http://stilsuole.it/.it</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>http://www.melissasrl.it</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>http://www.raf-luxury.com</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.raf-luxury.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F347F070&gt;: Failed to resolve 'www.raf-luxury.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>http://www.stefanellisrl.it</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.stefanellisrl.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F4550&gt;: Failed to resolve 'www.stefanellisrl.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>http://brunorossibags.it</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>http://kontessaccessori.it</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='kontessaccessori.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F30E4160&gt;: Failed to resolve 'kontessaccessori.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>http://landing.elvaqueroretailers.com</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>http://www.albertodiparma.com</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>http://www.carbottibags.com</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>http://www.prodital.biz</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>http://www.suolificiofashion.it</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>http://www.valpel.it/.it</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>http://clcalzaturificio.it</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='clcalzaturificio.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F301F280&gt;: Failed to resolve 'clcalzaturificio.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>http://oxitalyshoes.com</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>http://www.conceria-alpaca.it</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='no.access', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1535BA0&gt;: Failed to resolve 'no.access' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>http://www.laborsrl.org</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>http://www.guardolificiodiomedi.com</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>http://www.suolificiopres.it</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.suolificiopres.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F34509A0&gt;: Failed to resolve 'www.suolificiopres.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>http://www.keltonsrl.it</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>http://www.sevenpelletteria.it</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sevenpelletteria.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F33BC7F0&gt;: Failed to resolve 'www.sevenpelletteria.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>http://www.tomaificiosandrorossi.it</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tomaificiosandrorossi.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F35B14B0&gt;: Failed to resolve 'www.tomaificiosandrorossi.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>http://www.spaccatricepiave.it</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>http://www.etruscapelli.it</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>http://bellashoes.it</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiomusella.it</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>http://newitaliashoes.it</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>http://www.tassivanis.com</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.tassivanis.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>http://www.leta.it</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>http://www.robertodelcarlo.it</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>http://startupgroupsrls.it</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>http://www.iopelleitalia.com</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>http://www.lamontelliana.it</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>http://cobripelletterie.it</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>http://www.leselleitaliane.com</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.leselleitaliane.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1335BA0&gt;: Failed to resolve 'www.leselleitaliane.com' ([Errno 11002] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>http://www.pegasoshoes.com</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pegasoshoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3049360&gt;: Failed to resolve 'www.pegasoshoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>http://www.laneapolissotterrata.it</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>http://www.liadiva.com</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>http://www.fenicesrlmadeinitaly.com</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fenicesrlmadeinitaly.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F322BAC0&gt;: Failed to resolve 'www.fenicesrlmadeinitaly.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>http://www.conceriaprima.com</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>http://www.pecontrafforti.it</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pecontrafforti.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18AD7E0&gt;: Failed to resolve 'www.pecontrafforti.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>http://www.leulocati.com</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>http://www.bernardinisnc.com</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.bernardinisnc.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.bernardinisnc.com'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>http://www.gianricomori.com</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>http://www.vicodebramo.it</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>http://www.santagostino-milano.it</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.santagostino-milano.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F33D1840&gt;: Failed to resolve 'www.santagostino-milano.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>http://www.tomaificiorm.it</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>http://www.bricconi.com</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>http://laboratoriotoscano.it</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>http://melany-vy-srl-04016400618.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='melany-vy-srl-04016400618.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>http://www.fratellicucco.it</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fratellicucco.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F126B4F0&gt;: Failed to resolve 'www.fratellicucco.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>http://www.ortopediakasucci.it</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>http://buy-conceriamonteverdi.it</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>http://www.marenz.it</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>http://www.tranceriaitalyshoes.it</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>http://www.sandagroup.it/.it</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>http://www.corkline.net</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.corkline.net', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A83D00&gt;: Failed to resolve 'www.corkline.net' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>http://anaconda.it/.it</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>http://nicam.it</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', RemoteDisconnected('Remote end closed connection without response'))</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>http://www.modapelsnc.it</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.modapelsnc.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1551210&gt;: Failed to resolve 'www.modapelsnc.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>http://www.ortopedialocci.it</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.ortopedialocci.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3349CF0&gt;: Failed to resolve 'www.ortopedialocci.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiopiacentino.it</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificiopiacentino.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C61510&gt;: Failed to resolve 'www.calzaturificiopiacentino.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>http://amabilia.it</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiomepres.com</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificioromitellishoes.com</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificioromitellishoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3049240&gt;: Failed to resolve 'www.calzaturificioromitellishoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>http://www.altamodapositano.com</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.altamodapositano.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15A2EF0&gt;: Failed to resolve 'www.altamodapositano.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>http://www.angivenezia.it</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>http://www.delcomm.it</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.delcomm.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BC8310&gt;: Failed to resolve 'www.delcomm.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>http://www.dimisport.it</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.dimisport.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A823B0&gt;: Failed to resolve 'www.dimisport.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>http://www.guardolificioalex.net</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>http://gianfort.it</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>http://www.mipiacishoes.com</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.mipiacishoes.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F339AA10&gt;: Failed to resolve 'www.mipiacishoes.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>http://www.fabianicinture.net</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fabianicinture.net', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F33D1CC0&gt;: Failed to resolve 'www.fabianicinture.net' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>http://www.montelloshop.com</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>http://www.ilgrecocalzaturificio.com</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>http://cai-pelletteria-srl-06938300487.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='cai-pelletteria-srl-06938300487.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>http://www.cskacorridoniac5f.com</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.cskacorridoniac5f.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F13360E0&gt;: Failed to resolve 'www.cskacorridoniac5f.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>http://www.artepellesrl.it</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.artepellesrl.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F356B1C0&gt;: Failed to resolve 'www.artepellesrl.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>http://www.eurotac.it</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.eurotac.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3577B20&gt;: Failed to resolve 'www.eurotac.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>http://www.ncpsrl.com</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiomorlacchi.it</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>http://mundialdesign.it/.it</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>http://www.lapesrl.com</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.lapesrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BF5BD0&gt;: Failed to resolve 'www.lapesrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>http://www.nottoli.it</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>http://www.suolificiosanpaolo.com</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>http://kalipay.it</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>http://www.fiorangelo.it</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>http://www.systematica.it/pielle.it</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>http://www.colibrisrl.net</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>http://www.mtos.it</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.mtos.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3162F80&gt;: Failed to resolve 'www.mtos.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>http://www.fiorita.it</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.fiorita.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.fiorita.it'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>http://www.complastsnc.com</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.complastsnc.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F31630D0&gt;: Failed to resolve 'www.complastsnc.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>http://www.elizadivenezia.it</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>http://www.ilcantierestore.it</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.ilcantierestore.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E49FC0&gt;: Failed to resolve 'www.ilcantierestore.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>http://www.leveluponline.it</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.leveluponline.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2FEB040&gt;: Failed to resolve 'www.leveluponline.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>http://cinturificiobresciano.it</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>http://www.kostyle.it</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>http://www.suolificiocentroitalia.it</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.suolificiocentroitalia.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C2D3C0&gt;: Failed to resolve 'www.suolificiocentroitalia.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>http://www.calzaturetrebi.it</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturetrebi.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F30EA2F0&gt;: Failed to resolve 'www.calzaturetrebi.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>http://brunosfirenze.it</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>http://www.bazzecole.com</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>http://normajbaker.it</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='normajbaker.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F158B5E0&gt;: Failed to resolve 'normajbaker.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiosg.it</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificiosg.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15A2140&gt;: Failed to resolve 'www.calzaturificiosg.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>http://www.solettificioemme3.com</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>http://www.lillio.it</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>http://www.martinab.it</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.martinab.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F43640&gt;: Failed to resolve 'www.martinab.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>http://www.cittis.it</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.cittis.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.cittis.it'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>http://www.aldoraffa.com</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.aldoraffa.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, "[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: Hostname mismatch, certificate is not valid for 'www.aldoraffa.com'. (_ssl.c:997)")))</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>http://www.medfondisrl.it</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>http://micaleathersrl.net</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='micaleathersrl.net', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F173EFE0&gt;: Failed to resolve 'micaleathersrl.net' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>http://www.valdam.com</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>http://www.xanthia.it</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>http://www.margisrl.mobi</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>http://www.gisatacchificio.com</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gisatacchificio.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137C3D0&gt;: Failed to resolve 'www.gisatacchificio.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>http://www.temme2.it</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>http://www.quadraro.it</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>http://www.galaitaly.com</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.galaitaly.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1864FA0&gt;: Failed to resolve 'www.galaitaly.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>http://rafsoluzioni.it</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>http://ziviani.it</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>http://www.voistore.it</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>http://www.scenzasrl.com</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>http://www.tacchificioanna.com</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tacchificioanna.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A74100&gt;: Failed to resolve 'www.tacchificioanna.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>http://www.caltavuturese.it</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.caltavuturese.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A52A40&gt;: Failed to resolve 'www.caltavuturese.it' ([Errno 11002] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>http://francesca-srl-societ-unipersonale-03645810122.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='francesca-srl-societ-unipersonale-03645810122.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>http://www.hags.it</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>http://www.sf-italia.it</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>http://nicogiani.com</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>http://www.tomaificiopoker.it</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tomaificiopoker.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1712110&gt;: Failed to resolve 'www.tomaificiopoker.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>http://www.deltasuole.com</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>http://www.fregoli.net</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.fregoli.net', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>http://www.gamsrl.net</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gamsrl.net', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F29D4DC0&gt;: Failed to resolve 'www.gamsrl.net' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>http://www.alfredoberetta.it</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>http://www.hopesneakers.it</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>http://www.oropelitalia.it</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>http://www.argostannery.it</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>http://www.stella.solesfactory.it</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.stella.solesfactory.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A36EF0&gt;: Failed to resolve 'www.stella.solesfactory.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>http://www.mariniforniture.com</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>http://www.lartigianaviareggina.it</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>http://www.tamponaturapelliamano.it</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>http://www.karmansrl.com</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.karmansrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BF50F0&gt;: Failed to resolve 'www.karmansrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>http://www.eurosancr.com</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>http://www.micanto.it</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>http://www.klausdiffusion.com</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>http://new-lady-pelletteria-srl-01677610436.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='new-lady-pelletteria-srl-01677610436.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>http://www.porselli.it</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>http://www.gianniserena.it</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gianniserena.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15663E0&gt;: Failed to resolve 'www.gianniserena.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>http://www.miss-d.it</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>http://shop.alexade.com</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>http://www.civicoundici.com</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.civicoundici.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C2D120&gt;: Failed to resolve 'www.civicoundici.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>http://inshoes.italianmoda.com</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>http://viadazeglio.com</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='viadazeglio.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1565DB0&gt;: Failed to resolve 'viadazeglio.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>http://www.yourleather.it</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.yourleather.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BF69E0&gt;: Failed to resolve 'www.yourleather.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>http://luxurytech.fund.it</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>http://www.abline.it</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.abline.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2CE11E0&gt;: Failed to resolve 'www.abline.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificioevangard.it</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>http://www.guardolificiocampano.it</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.guardolificiocampano.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1537490&gt;: Failed to resolve 'www.guardolificiocampano.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>http://www.dealma.it</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>http://www.maryatkins.it</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>http://www.vero-verde.com</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.vero-verde.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F97B50&gt;: Failed to resolve 'www.vero-verde.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriasabas.itwww.amazon.itwww.ventis.it</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletteriasabas.itwww.amazon.itwww.ventis.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F322AE00&gt;: Failed to resolve 'www.pelletteriasabas.itwww.amazon.itwww.ventis.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>http://www.calzaturegipi.com</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturegipi.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2CE2080&gt;: Failed to resolve 'www.calzaturegipi.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>http://www.dsocka.com</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>http://www.fdmdesigns.it</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>http://www.carminetisci.it</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.carminetisci.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15ED900&gt;: Failed to resolve 'www.carminetisci.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>http://bisbag.com</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>http://www.celesteleather.com</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>http://www.inpell.it</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='no.access', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F73D0&gt;: Failed to resolve 'no.access' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>http://www.danton-caparrini.it</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.danton-caparrini.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F334B5B0&gt;: Failed to resolve 'www.danton-caparrini.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>http://www.marioacquaviva.it</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.marioacquaviva.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F61D0&gt;: Failed to resolve 'www.marioacquaviva.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>http://www.fisca.biz</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fisca.biz', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F126B7C0&gt;: Failed to resolve 'www.fisca.biz' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>http://valigeriancv.it</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>http://www.vittorionicchia.com</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.vittorionicchia.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1833820&gt;: Failed to resolve 'www.vittorionicchia.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>http://www.gerj.it</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>http://www.blu-style.com</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.blu-style.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F302D630&gt;: Failed to resolve 'www.blu-style.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>http://www.marcelmartillo.it</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.marcelmartillo.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C61E10&gt;: Failed to resolve 'www.marcelmartillo.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>http://www.atechccavo.it</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.atechccavo.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F6D40&gt;: Failed to resolve 'www.atechccavo.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>http://mascherinesubito.it</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='mascherinesubito.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137F340&gt;: Failed to resolve 'mascherinesubito.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>http://www.effegi-style.it</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>http://www.gambadelegn.com</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>http://www.lucanencioni.it</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.lucanencioni.oxatis.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLError(1, '[SSL: SSLV3_ALERT_HANDSHAKE_FAILURE] sslv3 alert handshake failure (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>http://www.imarinsol.it</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>http://www.conceriasaturnia.it</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.conceriasaturnia.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3201F30&gt;: Failed to resolve 'www.conceriasaturnia.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>http://www.salvatoresardisco.it</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.salvatoresardisco.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C44A60&gt;: Failed to resolve 'www.salvatoresardisco.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>http://biaborse.it</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='biaborse.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F35B13F0&gt;: Failed to resolve 'biaborse.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>http://www.trendesit.it</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.trendesit.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A83430&gt;: Failed to resolve 'www.trendesit.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>http://kilesa.fashion.it</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>http://mengoni-angela-srl-01483770432.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='mengoni-angela-srl-01483770432.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>http://www.luckyskins.it</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.luckyskins.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16214E0&gt;: Failed to resolve 'www.luckyskins.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>http://zerolabfirenze.it</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>http://www.mychoicebags.it</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>http://www.bottegacapri.it</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>http://bussolabag.com</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='bussolabag.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F136A230&gt;: Failed to resolve 'bussolabag.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>http://www.edoardoelorenzo.it</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.edoardoelorenzo.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16593F0&gt;: Failed to resolve 'www.edoardoelorenzo.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>http://alessandroteri.com</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='alessandroteri.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: self signed certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriesim.it</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletteriesim.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F334AD40&gt;: Failed to resolve 'www.pelletteriesim.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>http://www.manifatturefirenze.it</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.manifatturefirenze.it', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiogimar.it</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>http://www.beeworkers.it</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.beeworkers.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F336DF30&gt;: Failed to resolve 'www.beeworkers.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>http://www.kontessaccessori.it</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.kontessaccessori.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F301F880&gt;: Failed to resolve 'www.kontessaccessori.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>http://www.fdl-global.com</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>http://borserevenge.it</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='borserevenge.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F168E590&gt;: Failed to resolve 'borserevenge.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>http://spiderstraps.com</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>http://www.balducci.it</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>http://www.bagolo.it</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>http://www.veterestyle.it</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>http://ambraleather.com</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='ambraleather.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137F040&gt;: Failed to resolve 'ambraleather.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>http://www.conceriatigre.com</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.conceriatigre.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16728F0&gt;: Failed to resolve 'www.conceriatigre.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>http://www.valigeria-alex.com</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.valigeria-alex.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F307F370&gt;: Failed to resolve 'www.valigeria-alex.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>http://www.aviasrl.it</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.aviasrl.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1327B80&gt;: Failed to resolve 'www.aviasrl.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>http://www.tradinnovazione.it</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>http://www.bluehides.com</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.bluehides.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295D840&gt;: Failed to resolve 'www.bluehides.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>http://www.selenaneilux.com</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>http://www.lissatriceflacco.com</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.lissatriceflacco.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295D150&gt;: Failed to resolve 'www.lissatriceflacco.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriaabe.com</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletteriaabe.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F168EE60&gt;: Failed to resolve 'www.pelletteriaabe.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>http://www.mentietalenti.it</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.mentietalenti.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F173DE40&gt;: Failed to resolve 'www.mentietalenti.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>http://mauro-produzione-pelletterie-srl-09022731211.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='mauro-produzione-pelletterie-srl-09022731211.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>http://www.zingonicounters.com</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>http://www.fornarina.it</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>http://www.tecnosuolesrl.com</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tecnosuolesrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295E380&gt;: Failed to resolve 'www.tecnosuolesrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>http://www.xbaccoshoes.it</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.xbaccoshoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295DD80&gt;: Failed to resolve 'www.xbaccoshoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>http://www.catedianagiotti.it</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.catedianagiotti.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F295D8A0&gt;: Failed to resolve 'www.catedianagiotti.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>http://www.cardsrl.com</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.cardsrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15EDE70&gt;: Failed to resolve 'www.cardsrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>http://www.splendorplast.it</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.splendorplast.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C3CDF0&gt;: Failed to resolve 'www.splendorplast.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>http://www.joyitalia.com</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>http://www.rossetti.it</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='www.fratellirossetti.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>http://www.suolalfa.it</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>http://www.ideacalzature.it</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.ideacalzature.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C3DB10&gt;: Failed to resolve 'www.ideacalzature.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>http://www.savoda.it</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.savoda.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137CE80&gt;: Failed to resolve 'www.savoda.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>http://www.pisanpell.it</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiocimici.it</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificiocimici.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F137F040&gt;: Failed to resolve 'www.calzaturificiocimici.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>http://www.aldobrue.it</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>http://www.sangiustese2a.it</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sangiustese2a.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1327880&gt;: Failed to resolve 'www.sangiustese2a.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>http://www.horizonsrl.it</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>http://www.erikarocchi.it</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.erikarocchi.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2AEA2C0&gt;: Failed to resolve 'www.erikarocchi.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>http://www.tavares.it</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>http://www.piepelletteria.it</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.piepelletteria.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F32E46D0&gt;: Failed to resolve 'www.piepelletteria.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>http://www.ortopediapicenaap.it</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>http://www.gasgroupsrl.it</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>http://www.suolificioormasrl.com</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.suolificioormasrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2CFA170&gt;: Failed to resolve 'www.suolificioormasrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>http://www.adelaidesrl.com</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.adelaidesrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2CF8EB0&gt;: Failed to resolve 'www.adelaidesrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>http://www.sax-shoes.com</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sax.shoes', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F942B0&gt;: Failed to resolve 'www.sax.shoes' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>http://www.suolificiotuttofondi.com</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.suolificiotuttofondi.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F95840&gt;: Failed to resolve 'www.suolificiotuttofondi.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>http://renatoangi.com</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>http://www.staloni.it</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.staloni.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1658F40&gt;: Failed to resolve 'www.staloni.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>http://www.vielleitalia.com</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.vielleitalia.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F32E79D0&gt;: Failed to resolve 'www.vielleitalia.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>http://hymybag-official.com</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='hymybag-official.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1659150&gt;: Failed to resolve 'hymybag-official.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>http://www.outletdelcavallo.com</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>http://www.venetasuole.it</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.venetasuole.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F31D3A90&gt;: Failed to resolve 'www.venetasuole.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>http://www.conceriagaia.com</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.conceriagaia.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F94220&gt;: Failed to resolve 'www.conceriagaia.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>http://www.simonesrl.com</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.simonesrl.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2B23E80&gt;: Failed to resolve 'www.simonesrl.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>http://www.silvanolattanzi.com</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>http://www.belfur.it</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.belfur.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F32E4F70&gt;: Failed to resolve 'www.belfur.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriaforino.it</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletteriaforino.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2C1C790&gt;: Failed to resolve 'www.pelletteriaforino.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>http://www.monas-studio.it</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>http://www.lineadelfino.it</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.lineadelfino.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F339B760&gt;: Failed to resolve 'www.lineadelfino.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>http://www.canyon-shoes.business.site.it</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.canyon-shoes.business.site.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F33491B0&gt;: Failed to resolve 'www.canyon-shoes.business.site.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>http://biemme-srl-01901250439.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='biemme-srl-01901250439.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>http://www.sirrondos.com</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sirrondos.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F30E4B80&gt;: Failed to resolve 'www.sirrondos.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>http://www.spgsrl2017.it</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.spgsrl2017.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2CF9E70&gt;: Failed to resolve 'www.spgsrl2017.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>http://shop.bhshoes.it</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='shop.bhshoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BCB040&gt;: Failed to resolve 'shop.bhshoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>http://zamponi.moda.it</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='zamponi.moda.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F30E6E60&gt;: Failed to resolve 'zamponi.moda.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>http://www.gregal.it</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gregal.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F30E4940&gt;: Failed to resolve 'www.gregal.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>http://www.styleconsulance.it</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.styleconsulance.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E4A380&gt;: Failed to resolve 'www.styleconsulance.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>http://www.semilla.it</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.semilla.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1577100&gt;: Failed to resolve 'www.semilla.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>http://johmarshoes.com</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>http://www.bycrea.it</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.bycrea.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F17117B0&gt;: Failed to resolve 'www.bycrea.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>http://www.conceriabrasil.it</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.conceriabrasil.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E485E0&gt;: Failed to resolve 'www.conceriabrasil.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>http://www.popbag.it</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.popbag.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E4B760&gt;: Failed to resolve 'www.popbag.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>http://www.sandalipositano.salerno.it</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sandalipositano.salerno.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E491B0&gt;: Failed to resolve 'www.sandalipositano.salerno.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificioesteban.it</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzaturificioesteban.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2E4A2F0&gt;: Failed to resolve 'www.calzaturificioesteban.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>http://www.deceplast.it</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.deceplast.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A77340&gt;: Failed to resolve 'www.deceplast.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>http://www.latitudefemme.it</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.latitudefemme.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F347D900&gt;: Failed to resolve 'www.latitudefemme.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>http://www.poker-shoes.it</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>http://www.vandadangeli.com</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.vandadangeli.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F302EDD0&gt;: Failed to resolve 'www.vandadangeli.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>http://aisselashoes.it</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>http://tecnocoinn.it</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>http://it.federicoprice.com</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='it.federicoprice.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2DE39A0&gt;: Failed to resolve 'it.federicoprice.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>http://www.calzatureroma.it</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.calzatureroma.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2DE3520&gt;: Failed to resolve 'www.calzatureroma.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>http://www.gorbinipelle.it</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.gorbinipelle.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F131D6C0&gt;: Failed to resolve 'www.gorbinipelle.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>http://www.mannabag.it</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>http://20s-italia-srl-04151990241.quantofattura.com</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='20s-italia-srl-04151990241.quantofattura.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: certificate has expired (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>http://www.miticashoes.com</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>http://borsarte.com</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='borsarte.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F131D7B0&gt;: Failed to resolve 'borsarte.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>http://www.pelletteriachance.com</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.pelletteriachance.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A52B30&gt;: Failed to resolve 'www.pelletteriachance.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>http://www.calzaturezamagni.it</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>('Connection broken: ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall\'host remoto", None, 10054, None)', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>http://www.nonsolocuoio.com</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>http://www.conceriarcm.it</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>http://www.tuttocuoio.it</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>http://www.ctc.it</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>http://sensocreativo.net</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='sensocreativo.net', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A80160&gt;: Failed to resolve 'sensocreativo.net' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>http://www.filanto.it</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>http://www.lucianacavalli.it</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>http://www.matrasbags.it</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.matrasbags.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A509A0&gt;: Failed to resolve 'www.matrasbags.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>http://madeinsudsalento.it</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='madeinsudsalento.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15379D0&gt;: Failed to resolve 'madeinsudsalento.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>http://www.francogiazzi.com</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.francogiazzi.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2F42500&gt;: Failed to resolve 'www.francogiazzi.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>http://www.fabiozama.it</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.fabiozama.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A77250&gt;: Failed to resolve 'www.fabiozama.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>http://www.tileelit.it</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tileelit.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16F0070&gt;: Failed to resolve 'www.tileelit.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>http://www.rosenbergmilano.it</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.rosenbergmilano.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F33D0820&gt;: Failed to resolve 'www.rosenbergmilano.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>http://www.italianleathergroup.it</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>http://conintecom.com</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', RemoteDisconnected('Remote end closed connection without response'))</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>http://www.studswar.com</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>http://www.fabigroup.it</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>http://www.espadasrl.it</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.espadasrl.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F29D7190&gt;: Failed to resolve 'www.espadasrl.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>http://www.francescaevangelista.it</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.francescaevangelista.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F29D5300&gt;: Failed to resolve 'www.francescaevangelista.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>http://www.iysi.it</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>http://www.emozioniinliberta.com</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>http://www.maisonbag.com</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>http://www.carpan.com</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>http://www.atlassolesfactory.it</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.atlassolesfactory.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2BCBF10&gt;: Failed to resolve 'www.atlassolesfactory.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>http://www.clicleather.it</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.clicleather.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F3228160&gt;: Failed to resolve 'www.clicleather.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>http://www.gattodoro.it</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>HTTPSConnectionPool(host='fastwn77sakti.com', port=443): Max retries exceeded with url: / (Caused by SSLError(SSLCertVerificationError(1, '[SSL: CERTIFICATE_VERIFY_FAILED] certificate verify failed: unable to get local issuer certificate (_ssl.c:997)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>http://www.stabylah.it</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.stabylah.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15679D0&gt;: Failed to resolve 'www.stabylah.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>http://www.giacandpol.com</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.giacandpol.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F15884F0&gt;: Failed to resolve 'www.giacandpol.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>http://selleriagranata.it</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='selleriagranata.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16F2A70&gt;: Failed to resolve 'selleriagranata.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>http://www.monyagrana.com</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>http://www.ipak.it</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>http://www.bellemarie.it</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.bellemarie.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F35B0DF0&gt;: Failed to resolve 'www.bellemarie.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>http://www.divigevano.com</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.divigevano.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F32035B0&gt;: Failed to resolve 'www.divigevano.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>http://www.tremp.it</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.tremp.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F302C2E0&gt;: Failed to resolve 'www.tremp.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>http://www.cmp-bags.it</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>http://www.paolo-rinaldi.com</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.paolo-rinaldi.com', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F1577CA0&gt;: Failed to resolve 'www.paolo-rinaldi.com' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>http://www.aniani.it</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.aniani.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F35F25F0&gt;: Failed to resolve 'www.aniani.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>http://my-bagsrl.onweb.it</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>http://www.scanumaddalena.com</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>http://www.bomar-spa.com</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>('Connection aborted.', ConnectionResetError(10054, "Connessione in corso interrotta forzatamente dall'host remoto", None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>http://www.sagicalzature.it</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.sagicalzature.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F18F7460&gt;: Failed to resolve 'www.sagicalzature.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>http://www.calzaturificiobeb.com</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>http://www.faceshoes.it</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.faceshoes.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F344FC10&gt;: Failed to resolve 'www.faceshoes.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>http://www.manifattureconciarie.it</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.manifattureconciarie.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F16724D0&gt;: Failed to resolve 'www.manifattureconciarie.it' ([Errno 11001] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>http://www.dgleather.it</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='www.dgleather.it', port=80): Max retries exceeded with url: / (Caused by NameResolutionError("&lt;urllib3.connection.HTTPConnection object at 0x00000174F2A50CA0&gt;: Failed to resolve 'www.dgleather.it' ([Errno 11002] getaddrinfo failed)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>http://www.hamana.it</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>http://studiospherasrl.it</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>http://www.tacchificioalbert.it</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>http://www.igm-srl.it</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>http://www.zabattigli.com</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>http://www.memplastiche.it</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>http://www.casacciapelletterie.com</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>http://www.cambraturapenazzato.com</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>http://lytosoutlet.it</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>

--- a/risposte.xlsx
+++ b/risposte.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,42 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>http://www.pasubio.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>http://www.gucci.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>http://www.todsgroup.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
